--- a/src/Views/admin/format/export/invoice.xlsx
+++ b/src/Views/admin/format/export/invoice.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="invoiceLines">Invoice!$F$5:$F$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$A$1:$G$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$A$1:$G$18</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Invoice</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Balance:</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -648,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,10 +844,10 @@
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="11"/>
-      <c r="E11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="16">
+      <c r="E11" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="25">
         <v>0</v>
       </c>
     </row>
@@ -852,25 +855,26 @@
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="11"/>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="11"/>
+      <c r="E13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="17">
-        <f>SUM(F10:F11)</f>
+      <c r="F13" s="17">
+        <f>SUM(F10:F12)</f>
         <v>0</v>
       </c>
-      <c r="G12" t="str">
-        <f t="shared" ref="G12:H17" si="1">CHAR(32)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G13:H18" si="1">CHAR(32)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H13" t="str">
@@ -908,12 +912,22 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="7:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G17" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H18" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
